--- a/natmiOut/OldD2/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Pomc-Mc5r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.26497723271053</v>
+        <v>1.4951615</v>
       </c>
       <c r="H2">
-        <v>1.26497723271053</v>
+        <v>2.990323</v>
       </c>
       <c r="I2">
-        <v>0.5765437129054709</v>
+        <v>0.6020739711267923</v>
       </c>
       <c r="J2">
-        <v>0.5765437129054709</v>
+        <v>0.5021622551131893</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.963135699297352</v>
+        <v>0.9666250000000001</v>
       </c>
       <c r="N2">
-        <v>0.963135699297352</v>
+        <v>1.93325</v>
       </c>
       <c r="O2">
-        <v>0.386047822164669</v>
+        <v>0.322724746715536</v>
       </c>
       <c r="P2">
-        <v>0.386047822164669</v>
+        <v>0.2550922792114143</v>
       </c>
       <c r="Q2">
-        <v>1.218344731621885</v>
+        <v>1.4452604849375</v>
       </c>
       <c r="R2">
-        <v>1.218344731621885</v>
+        <v>5.781041939750001</v>
       </c>
       <c r="S2">
-        <v>0.2225734447498892</v>
+        <v>0.194304169835911</v>
       </c>
       <c r="T2">
-        <v>0.2225734447498892</v>
+        <v>0.1280977141907671</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +596,52 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.26497723271053</v>
+        <v>1.4951615</v>
       </c>
       <c r="H3">
-        <v>1.26497723271053</v>
+        <v>2.990323</v>
       </c>
       <c r="I3">
-        <v>0.5765437129054709</v>
+        <v>0.6020739711267923</v>
       </c>
       <c r="J3">
-        <v>0.5765437129054709</v>
+        <v>0.5021622551131893</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.0627334391715</v>
+        <v>1.093967666666667</v>
       </c>
       <c r="N3">
-        <v>1.0627334391715</v>
+        <v>3.281903</v>
       </c>
       <c r="O3">
-        <v>0.4259689782374722</v>
+        <v>0.3652403342971534</v>
       </c>
       <c r="P3">
-        <v>0.4259689782374722</v>
+        <v>0.4330470018987601</v>
       </c>
       <c r="Q3">
-        <v>1.344333604992108</v>
+        <v>1.635658337444833</v>
       </c>
       <c r="R3">
-        <v>1.344333604992108</v>
+        <v>9.813950024668999</v>
       </c>
       <c r="S3">
-        <v>0.245589736295582</v>
+        <v>0.2199016984859643</v>
       </c>
       <c r="T3">
-        <v>0.245589736295582</v>
+        <v>0.2174598590434869</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,60 +655,60 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.26497723271053</v>
+        <v>1.4951615</v>
       </c>
       <c r="H4">
-        <v>1.26497723271053</v>
+        <v>2.990323</v>
       </c>
       <c r="I4">
-        <v>0.5765437129054709</v>
+        <v>0.6020739711267923</v>
       </c>
       <c r="J4">
-        <v>0.5765437129054709</v>
+        <v>0.5021622551131893</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.468991974583939</v>
+        <v>0.01150933333333333</v>
       </c>
       <c r="N4">
-        <v>0.468991974583939</v>
+        <v>0.034528</v>
       </c>
       <c r="O4">
-        <v>0.1879831995978588</v>
+        <v>0.003842593234051133</v>
       </c>
       <c r="P4">
-        <v>0.1879831995978588</v>
+        <v>0.004555968558961185</v>
       </c>
       <c r="Q4">
-        <v>0.5932641701726383</v>
+        <v>0.01720831209066667</v>
       </c>
       <c r="R4">
-        <v>0.5932641701726383</v>
+        <v>0.103249872544</v>
       </c>
       <c r="S4">
-        <v>0.1083805318599997</v>
+        <v>0.002313525367850109</v>
       </c>
       <c r="T4">
-        <v>0.1083805318599997</v>
+        <v>0.002287835445792736</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -711,60 +717,60 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.929092712716025</v>
+        <v>1.4951615</v>
       </c>
       <c r="H5">
-        <v>0.929092712716025</v>
+        <v>2.990323</v>
       </c>
       <c r="I5">
-        <v>0.423456287094529</v>
+        <v>0.6020739711267923</v>
       </c>
       <c r="J5">
-        <v>0.423456287094529</v>
+        <v>0.5021622551131893</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.963135699297352</v>
+        <v>0.482754</v>
       </c>
       <c r="N5">
-        <v>0.963135699297352</v>
+        <v>1.448262</v>
       </c>
       <c r="O5">
-        <v>0.386047822164669</v>
+        <v>0.1611759083159569</v>
       </c>
       <c r="P5">
-        <v>0.386047822164669</v>
+        <v>0.1910981272340779</v>
       </c>
       <c r="Q5">
-        <v>0.8948423595738225</v>
+        <v>0.721795194771</v>
       </c>
       <c r="R5">
-        <v>0.8948423595738225</v>
+        <v>4.330771168626</v>
       </c>
       <c r="S5">
-        <v>0.1634743774147798</v>
+        <v>0.09703981916975597</v>
       </c>
       <c r="T5">
-        <v>0.1634743774147798</v>
+        <v>0.09596226651977176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
@@ -773,55 +779,55 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.929092712716025</v>
+        <v>1.4951615</v>
       </c>
       <c r="H6">
-        <v>0.929092712716025</v>
+        <v>2.990323</v>
       </c>
       <c r="I6">
-        <v>0.423456287094529</v>
+        <v>0.6020739711267923</v>
       </c>
       <c r="J6">
-        <v>0.423456287094529</v>
+        <v>0.5021622551131893</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>1.0627334391715</v>
+        <v>0.4403435</v>
       </c>
       <c r="N6">
-        <v>1.0627334391715</v>
+        <v>0.880687</v>
       </c>
       <c r="O6">
-        <v>0.4259689782374722</v>
+        <v>0.1470164174373026</v>
       </c>
       <c r="P6">
-        <v>0.4259689782374722</v>
+        <v>0.1162066230967866</v>
       </c>
       <c r="Q6">
-        <v>0.9873778938938796</v>
+        <v>0.65838464797525</v>
       </c>
       <c r="R6">
-        <v>0.9873778938938796</v>
+        <v>2.633538591901</v>
       </c>
       <c r="S6">
-        <v>0.1803792419418902</v>
+        <v>0.08851475826731098</v>
       </c>
       <c r="T6">
-        <v>0.1803792419418902</v>
+        <v>0.05835457991337081</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,55 +841,303 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.9881903333333333</v>
+      </c>
+      <c r="H7">
+        <v>2.964571</v>
+      </c>
+      <c r="I7">
+        <v>0.3979260288732077</v>
+      </c>
+      <c r="J7">
+        <v>0.4978377448868108</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.9666250000000001</v>
+      </c>
+      <c r="N7">
+        <v>1.93325</v>
+      </c>
+      <c r="O7">
+        <v>0.322724746715536</v>
+      </c>
+      <c r="P7">
+        <v>0.2550922792114143</v>
+      </c>
+      <c r="Q7">
+        <v>0.9552094809583334</v>
+      </c>
+      <c r="R7">
+        <v>5.73125688575</v>
+      </c>
+      <c r="S7">
+        <v>0.128420576879625</v>
+      </c>
+      <c r="T7">
+        <v>0.1269945650206472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.929092712716025</v>
-      </c>
-      <c r="H7">
-        <v>0.929092712716025</v>
-      </c>
-      <c r="I7">
-        <v>0.423456287094529</v>
-      </c>
-      <c r="J7">
-        <v>0.423456287094529</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.468991974583939</v>
-      </c>
-      <c r="N7">
-        <v>0.468991974583939</v>
-      </c>
-      <c r="O7">
-        <v>0.1879831995978588</v>
-      </c>
-      <c r="P7">
-        <v>0.1879831995978588</v>
-      </c>
-      <c r="Q7">
-        <v>0.4357370259082369</v>
-      </c>
-      <c r="R7">
-        <v>0.4357370259082369</v>
-      </c>
-      <c r="S7">
-        <v>0.07960266773785905</v>
-      </c>
-      <c r="T7">
-        <v>0.07960266773785905</v>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.9881903333333333</v>
+      </c>
+      <c r="H8">
+        <v>2.964571</v>
+      </c>
+      <c r="I8">
+        <v>0.3979260288732077</v>
+      </c>
+      <c r="J8">
+        <v>0.4978377448868108</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.093967666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.281903</v>
+      </c>
+      <c r="O8">
+        <v>0.3652403342971534</v>
+      </c>
+      <c r="P8">
+        <v>0.4330470018987601</v>
+      </c>
+      <c r="Q8">
+        <v>1.081048273179222</v>
+      </c>
+      <c r="R8">
+        <v>9.729434458612999</v>
+      </c>
+      <c r="S8">
+        <v>0.1453386358111891</v>
+      </c>
+      <c r="T8">
+        <v>0.2155871428552732</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.9881903333333333</v>
+      </c>
+      <c r="H9">
+        <v>2.964571</v>
+      </c>
+      <c r="I9">
+        <v>0.3979260288732077</v>
+      </c>
+      <c r="J9">
+        <v>0.4978377448868108</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.01150933333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.034528</v>
+      </c>
+      <c r="O9">
+        <v>0.003842593234051133</v>
+      </c>
+      <c r="P9">
+        <v>0.004555968558961185</v>
+      </c>
+      <c r="Q9">
+        <v>0.01137341194311111</v>
+      </c>
+      <c r="R9">
+        <v>0.102360707488</v>
+      </c>
+      <c r="S9">
+        <v>0.001529067866201024</v>
+      </c>
+      <c r="T9">
+        <v>0.002268133113168449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.9881903333333333</v>
+      </c>
+      <c r="H10">
+        <v>2.964571</v>
+      </c>
+      <c r="I10">
+        <v>0.3979260288732077</v>
+      </c>
+      <c r="J10">
+        <v>0.4978377448868108</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.482754</v>
+      </c>
+      <c r="N10">
+        <v>1.448262</v>
+      </c>
+      <c r="O10">
+        <v>0.1611759083159569</v>
+      </c>
+      <c r="P10">
+        <v>0.1910981272340779</v>
+      </c>
+      <c r="Q10">
+        <v>0.4770528361779999</v>
+      </c>
+      <c r="R10">
+        <v>4.293475525601999</v>
+      </c>
+      <c r="S10">
+        <v>0.06413608914620096</v>
+      </c>
+      <c r="T10">
+        <v>0.09513586071430619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.9881903333333333</v>
+      </c>
+      <c r="H11">
+        <v>2.964571</v>
+      </c>
+      <c r="I11">
+        <v>0.3979260288732077</v>
+      </c>
+      <c r="J11">
+        <v>0.4978377448868108</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.4403435</v>
+      </c>
+      <c r="N11">
+        <v>0.880687</v>
+      </c>
+      <c r="O11">
+        <v>0.1470164174373026</v>
+      </c>
+      <c r="P11">
+        <v>0.1162066230967866</v>
+      </c>
+      <c r="Q11">
+        <v>0.4351431900461666</v>
+      </c>
+      <c r="R11">
+        <v>2.610859140277</v>
+      </c>
+      <c r="S11">
+        <v>0.05850165916999164</v>
+      </c>
+      <c r="T11">
+        <v>0.05785204318341583</v>
       </c>
     </row>
   </sheetData>
